--- a/PangkalanData/public/Template/Template Duta Bahasa Nasional.xlsx
+++ b/PangkalanData/public/Template/Template Duta Bahasa Nasional.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Provinsi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tahun</t>
   </si>
@@ -52,9 +49,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -72,6 +69,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -79,12 +83,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -93,55 +112,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,15 +128,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,9 +144,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,8 +167,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,19 +234,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,13 +360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,25 +372,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,90 +396,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -412,12 +415,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,26 +458,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,15 +478,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,11 +499,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,151 +529,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,10 +1042,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A1" sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1064,7 +1061,7 @@
     <col min="10" max="10" width="18.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:10">
+    <row r="1" ht="25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1092,15 +1089,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
     </row>
     <row r="3" ht="22" customHeight="1"/>
   </sheetData>

--- a/PangkalanData/public/Template/Template Duta Bahasa Nasional.xlsx
+++ b/PangkalanData/public/Template/Template Duta Bahasa Nasional.xlsx
@@ -2,45 +2,57 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <bookViews>
     <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>TEMPLATE IMPORT DATA DUTA BAHASA NASIONAL</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
   <si>
     <t>Tahun</t>
   </si>
   <si>
-    <t>Pemenang 1 1</t>
+    <t>Pemenang 1 (1)</t>
   </si>
   <si>
-    <t>Pemenang 1 2</t>
+    <t>Pemenang 1 (2)</t>
   </si>
   <si>
-    <t>Pemenang 2 1</t>
+    <t>Pemenang 2 (1)</t>
   </si>
   <si>
-    <t>Pemenang 2 2</t>
+    <t>Pemenang 2 (2)</t>
   </si>
   <si>
-    <t>Pemenang 3 1</t>
+    <t>Pemenang 3 (1)</t>
   </si>
   <si>
-    <t>Pemenang 3 2</t>
+    <t>Pemenang 3 (2)</t>
   </si>
   <si>
     <t>Keterangan</t>
   </si>
   <si>
-    <t>Media</t>
+    <t>Tanda (*) Data Wajib Diisi!</t>
+  </si>
+  <si>
+    <t>Warna BIRU</t>
+  </si>
+  <si>
+    <t>Harus Berupa Angka, Tidak boleh ada simbol</t>
   </si>
 </sst>
 </file>
@@ -48,14 +60,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -69,36 +88,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,15 +142,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,9 +156,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,13 +178,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -160,23 +187,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,21 +211,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -219,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,7 +240,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,13 +288,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,138 +408,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -400,26 +442,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -434,11 +458,70 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,15 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -542,158 +616,190 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,7 +852,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -756,7 +862,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -766,39 +872,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -877,160 +983,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1042,64 +1119,163 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A13"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.4259259259259" customWidth="1"/>
-    <col min="2" max="3" width="17.5648148148148" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="17.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="15.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="16.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="17.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="20.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="18.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="27.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.55555555555556" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.44444444444444" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="11" width="16.7777777777778" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="9.55555555555556" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:11">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A2" s="6"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" ht="22" customHeight="1"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="17" customHeight="1" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" ht="15.15" spans="1:1">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="15.15" spans="1:1">
+      <c r="A8" s="12"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:3">
+      <c r="A15"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21"/>
+    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Berupa Angka" sqref="D1:D2"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Berupa Angka" sqref="D3:D1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/PangkalanData/public/Template/Template Duta Bahasa Nasional.xlsx
+++ b/PangkalanData/public/Template/Template Duta Bahasa Nasional.xlsx
@@ -60,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -88,7 +88,108 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,122 +204,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,187 +258,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +521,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,6 +541,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -556,6 +571,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -573,24 +597,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,164 +614,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1130,8 +1130,7 @@
     <col min="1" max="1" width="27.7777777777778" style="1" customWidth="1"/>
     <col min="2" max="2" width="1.55555555555556" style="2" customWidth="1"/>
     <col min="3" max="3" width="5.44444444444444" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="11" width="16.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="11" width="16.7777777777778" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
     <col min="14" max="14" width="9.55555555555556" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
@@ -1271,7 +1270,7 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Berupa Angka" sqref="D1:D2"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Berupa Angka" sqref="D3:D1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Berupa Angka" sqref="D3:D18">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
